--- a/test01.xlsx
+++ b/test01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/mafee-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C599336A-283E-EA4E-AF84-27178FD701A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E1903E-1421-F94C-B798-5516F493C366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="15980" xr2:uid="{803DE16F-5515-0847-A741-CE90F74251E6}"/>
   </bookViews>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年齡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>李曉明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,35 +396,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB01D8C-5302-F445-A2AD-7AC6115FDBD7}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="C2">
         <v>24</v>
       </c>
     </row>
